--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gip-Dpp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gip-Dpp4.xlsx
@@ -537,22 +537,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0278035</v>
+        <v>0.3260275</v>
       </c>
       <c r="H2">
-        <v>0.055607</v>
+        <v>0.6520550000000001</v>
       </c>
       <c r="I2">
-        <v>0.07089058472270739</v>
+        <v>0.4722113996121241</v>
       </c>
       <c r="J2">
-        <v>0.05653237850372753</v>
+        <v>0.4126724043544658</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -567,22 +567,22 @@
         <v>6.87088</v>
       </c>
       <c r="O2">
-        <v>0.1950307560585449</v>
+        <v>0.367191313355536</v>
       </c>
       <c r="P2">
-        <v>0.1961987211651946</v>
+        <v>0.368867471188671</v>
       </c>
       <c r="Q2">
-        <v>0.06367817069333333</v>
+        <v>0.7466986097333334</v>
       </c>
       <c r="R2">
-        <v>0.38206902416</v>
+        <v>4.4801916584</v>
       </c>
       <c r="S2">
-        <v>0.01382584433590196</v>
+        <v>0.1733919240050317</v>
       </c>
       <c r="T2">
-        <v>0.01109158036685808</v>
+        <v>0.1522214262235805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0278035</v>
+        <v>0.3260275</v>
       </c>
       <c r="H3">
-        <v>0.055607</v>
+        <v>0.6520550000000001</v>
       </c>
       <c r="I3">
-        <v>0.07089058472270739</v>
+        <v>0.4722113996121241</v>
       </c>
       <c r="J3">
-        <v>0.05653237850372753</v>
+        <v>0.4126724043544658</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.958811333333333</v>
+        <v>1.867716</v>
       </c>
       <c r="N3">
-        <v>5.876434000000001</v>
+        <v>5.603148000000001</v>
       </c>
       <c r="O3">
-        <v>0.1668032866165818</v>
+        <v>0.2994415959884972</v>
       </c>
       <c r="P3">
-        <v>0.1678022081322435</v>
+        <v>0.3008084893719378</v>
       </c>
       <c r="Q3">
-        <v>0.05446181090633334</v>
+        <v>0.6089267781900002</v>
       </c>
       <c r="R3">
-        <v>0.326770865438</v>
+        <v>3.653560669140001</v>
       </c>
       <c r="S3">
-        <v>0.01182478252191884</v>
+        <v>0.1413997351438165</v>
       </c>
       <c r="T3">
-        <v>0.009486257943893257</v>
+        <v>0.1241353625593524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0278035</v>
+        <v>0.3260275</v>
       </c>
       <c r="H4">
-        <v>0.055607</v>
+        <v>0.6520550000000001</v>
       </c>
       <c r="I4">
-        <v>0.07089058472270739</v>
+        <v>0.4722113996121241</v>
       </c>
       <c r="J4">
-        <v>0.05653237850372753</v>
+        <v>0.4126724043544658</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2097215</v>
+        <v>0.08502850000000001</v>
       </c>
       <c r="N4">
-        <v>0.419443</v>
+        <v>0.170057</v>
       </c>
       <c r="O4">
-        <v>0.01785891008432637</v>
+        <v>0.01363219555034488</v>
       </c>
       <c r="P4">
-        <v>0.01197724020819644</v>
+        <v>0.00912961593681331</v>
       </c>
       <c r="Q4">
-        <v>0.00583099172525</v>
+        <v>0.02772162928375</v>
       </c>
       <c r="R4">
-        <v>0.023323966901</v>
+        <v>0.110886517135</v>
       </c>
       <c r="S4">
-        <v>0.001266028578388152</v>
+        <v>0.006437278140614524</v>
       </c>
       <c r="T4">
-        <v>0.0006771018768798252</v>
+        <v>0.003767540559477598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0278035</v>
+        <v>0.3260275</v>
       </c>
       <c r="H5">
-        <v>0.055607</v>
+        <v>0.6520550000000001</v>
       </c>
       <c r="I5">
-        <v>0.07089058472270739</v>
+        <v>0.4722113996121241</v>
       </c>
       <c r="J5">
-        <v>0.05653237850372753</v>
+        <v>0.4126724043544658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03269333333333333</v>
+        <v>1.132021</v>
       </c>
       <c r="N5">
-        <v>0.09808</v>
+        <v>3.396063</v>
       </c>
       <c r="O5">
-        <v>0.002784012608897563</v>
+        <v>0.1814912839706329</v>
       </c>
       <c r="P5">
-        <v>0.00280068500277727</v>
+        <v>0.1823197568298983</v>
       </c>
       <c r="Q5">
-        <v>0.0009089890933333334</v>
+        <v>0.3690699765775</v>
       </c>
       <c r="R5">
-        <v>0.00545393456</v>
+        <v>2.214419859465</v>
       </c>
       <c r="S5">
-        <v>0.0001973602817201383</v>
+        <v>0.085702253221174</v>
       </c>
       <c r="T5">
-        <v>0.0001583293846467178</v>
+        <v>0.07523833241231569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0278035</v>
+        <v>0.3260275</v>
       </c>
       <c r="H6">
-        <v>0.055607</v>
+        <v>0.6520550000000001</v>
       </c>
       <c r="I6">
-        <v>0.07089058472270739</v>
+        <v>0.4722113996121241</v>
       </c>
       <c r="J6">
-        <v>0.05653237850372753</v>
+        <v>0.4126724043544658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.251722333333333</v>
+        <v>0.8622709999999999</v>
       </c>
       <c r="N6">
-        <v>21.755167</v>
+        <v>2.586813</v>
       </c>
       <c r="O6">
-        <v>0.6175230346316494</v>
+        <v>0.1382436111349891</v>
       </c>
       <c r="P6">
-        <v>0.6212211454915881</v>
+        <v>0.1388746666726794</v>
       </c>
       <c r="Q6">
-        <v>0.2016232618948333</v>
+        <v>0.2811240584525</v>
       </c>
       <c r="R6">
-        <v>1.209739571369</v>
+        <v>1.686744350715</v>
       </c>
       <c r="S6">
-        <v>0.0437765690047783</v>
+        <v>0.06528020910148745</v>
       </c>
       <c r="T6">
-        <v>0.03511910893144965</v>
+        <v>0.05730974259973964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.597675</v>
       </c>
       <c r="I7">
-        <v>0.5079639880368074</v>
+        <v>0.2885533155568945</v>
       </c>
       <c r="J7">
-        <v>0.6076211506144072</v>
+        <v>0.3782564036355144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>6.87088</v>
       </c>
       <c r="O7">
-        <v>0.1950307560585449</v>
+        <v>0.367191313355536</v>
       </c>
       <c r="P7">
-        <v>0.1961987211651946</v>
+        <v>0.368867471188671</v>
       </c>
       <c r="Q7">
         <v>0.4562836893333332</v>
@@ -889,10 +889,10 @@
         <v>4.106553204</v>
       </c>
       <c r="S7">
-        <v>0.09906860063733222</v>
+        <v>0.1059542709124305</v>
       </c>
       <c r="T7">
-        <v>0.1192144927034708</v>
+        <v>0.1395264830699534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.597675</v>
       </c>
       <c r="I8">
-        <v>0.5079639880368074</v>
+        <v>0.2885533155568945</v>
       </c>
       <c r="J8">
-        <v>0.6076211506144072</v>
+        <v>0.3782564036355144</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.958811333333333</v>
+        <v>1.867716</v>
       </c>
       <c r="N8">
-        <v>5.876434000000001</v>
+        <v>5.603148000000001</v>
       </c>
       <c r="O8">
-        <v>0.1668032866165818</v>
+        <v>0.2994415959884972</v>
       </c>
       <c r="P8">
-        <v>0.1678022081322435</v>
+        <v>0.3008084893719378</v>
       </c>
       <c r="Q8">
-        <v>0.3902441878833333</v>
+        <v>0.3720957201</v>
       </c>
       <c r="R8">
-        <v>3.51219769095</v>
+        <v>3.3488614809</v>
       </c>
       <c r="S8">
-        <v>0.08473006268740552</v>
+        <v>0.08640486533812893</v>
       </c>
       <c r="T8">
-        <v>0.1019601707809521</v>
+        <v>0.1137827373728611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.597675</v>
       </c>
       <c r="I9">
-        <v>0.5079639880368074</v>
+        <v>0.2885533155568945</v>
       </c>
       <c r="J9">
-        <v>0.6076211506144072</v>
+        <v>0.3782564036355144</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2097215</v>
+        <v>0.08502850000000001</v>
       </c>
       <c r="N9">
-        <v>0.419443</v>
+        <v>0.170057</v>
       </c>
       <c r="O9">
-        <v>0.01785891008432637</v>
+        <v>0.01363219555034488</v>
       </c>
       <c r="P9">
-        <v>0.01197724020819644</v>
+        <v>0.00912961593681331</v>
       </c>
       <c r="Q9">
-        <v>0.0417817658375</v>
+        <v>0.0169398029125</v>
       </c>
       <c r="R9">
-        <v>0.250690595025</v>
+        <v>0.101638817475</v>
       </c>
       <c r="S9">
-        <v>0.009071683188425182</v>
+        <v>0.003933615224371957</v>
       </c>
       <c r="T9">
-        <v>0.007277624476489461</v>
+        <v>0.00345333569083248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.597675</v>
       </c>
       <c r="I10">
-        <v>0.5079639880368074</v>
+        <v>0.2885533155568945</v>
       </c>
       <c r="J10">
-        <v>0.6076211506144072</v>
+        <v>0.3782564036355144</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03269333333333333</v>
+        <v>1.132021</v>
       </c>
       <c r="N10">
-        <v>0.09808</v>
+        <v>3.396063</v>
       </c>
       <c r="O10">
-        <v>0.002784012608897563</v>
+        <v>0.1814912839706329</v>
       </c>
       <c r="P10">
-        <v>0.00280068500277727</v>
+        <v>0.1823197568298983</v>
       </c>
       <c r="Q10">
-        <v>0.006513329333333332</v>
+        <v>0.225526883725</v>
       </c>
       <c r="R10">
-        <v>0.058619964</v>
+        <v>2.029741953525</v>
       </c>
       <c r="S10">
-        <v>0.001414178147560363</v>
+        <v>0.05236991173440396</v>
       </c>
       <c r="T10">
-        <v>0.001701755443896039</v>
+        <v>0.06896361553017885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.597675</v>
       </c>
       <c r="I11">
-        <v>0.5079639880368074</v>
+        <v>0.2885533155568945</v>
       </c>
       <c r="J11">
-        <v>0.6076211506144072</v>
+        <v>0.3782564036355144</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.251722333333333</v>
+        <v>0.8622709999999999</v>
       </c>
       <c r="N11">
-        <v>21.755167</v>
+        <v>2.586813</v>
       </c>
       <c r="O11">
-        <v>0.6175230346316494</v>
+        <v>0.1382436111349891</v>
       </c>
       <c r="P11">
-        <v>0.6212211454915881</v>
+        <v>0.1388746666726794</v>
       </c>
       <c r="Q11">
-        <v>1.444724381858333</v>
+        <v>0.171785939975</v>
       </c>
       <c r="R11">
-        <v>13.002519436725</v>
+        <v>1.546073459775</v>
       </c>
       <c r="S11">
-        <v>0.3136794633760842</v>
+        <v>0.03989065234755913</v>
       </c>
       <c r="T11">
-        <v>0.3774671072095989</v>
+        <v>0.05253023197168855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.330349</v>
       </c>
       <c r="I12">
-        <v>0.4211454272404852</v>
+        <v>0.2392352848309814</v>
       </c>
       <c r="J12">
-        <v>0.3358464708818653</v>
+        <v>0.2090711920100198</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,10 +1187,10 @@
         <v>6.87088</v>
       </c>
       <c r="O12">
-        <v>0.1950307560585449</v>
+        <v>0.367191313355536</v>
       </c>
       <c r="P12">
-        <v>0.1961987211651946</v>
+        <v>0.368867471188671</v>
       </c>
       <c r="Q12">
         <v>0.3782980561866666</v>
@@ -1199,10 +1199,10 @@
         <v>2.26978833712</v>
       </c>
       <c r="S12">
-        <v>0.08213631108531075</v>
+        <v>0.08784511843807381</v>
       </c>
       <c r="T12">
-        <v>0.06589264809486572</v>
+        <v>0.07711956189513706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.330349</v>
       </c>
       <c r="I13">
-        <v>0.4211454272404852</v>
+        <v>0.2392352848309814</v>
       </c>
       <c r="J13">
-        <v>0.3358464708818653</v>
+        <v>0.2090711920100198</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.958811333333333</v>
+        <v>1.867716</v>
       </c>
       <c r="N13">
-        <v>5.876434000000001</v>
+        <v>5.603148000000001</v>
       </c>
       <c r="O13">
-        <v>0.1668032866165818</v>
+        <v>0.2994415959884972</v>
       </c>
       <c r="P13">
-        <v>0.1678022081322435</v>
+        <v>0.3008084893719378</v>
       </c>
       <c r="Q13">
-        <v>0.3235456825776667</v>
+        <v>0.308499056442</v>
       </c>
       <c r="R13">
-        <v>1.941274095466</v>
+        <v>1.850994338652</v>
       </c>
       <c r="S13">
-        <v>0.07024844140725746</v>
+        <v>0.07163699550655178</v>
       </c>
       <c r="T13">
-        <v>0.05635577940739822</v>
+        <v>0.0628903894397244</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>0.330349</v>
       </c>
       <c r="I14">
-        <v>0.4211454272404852</v>
+        <v>0.2392352848309814</v>
       </c>
       <c r="J14">
-        <v>0.3358464708818653</v>
+        <v>0.2090711920100198</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2097215</v>
+        <v>0.08502850000000001</v>
       </c>
       <c r="N14">
-        <v>0.419443</v>
+        <v>0.170057</v>
       </c>
       <c r="O14">
-        <v>0.01785891008432637</v>
+        <v>0.01363219555034488</v>
       </c>
       <c r="P14">
-        <v>0.01197724020819644</v>
+        <v>0.00912961593681331</v>
       </c>
       <c r="Q14">
-        <v>0.03464064390175</v>
+        <v>0.01404453997325</v>
       </c>
       <c r="R14">
-        <v>0.138562575607</v>
+        <v>0.05617815989300001</v>
       </c>
       <c r="S14">
-        <v>0.007521198317513041</v>
+        <v>0.003261302185358394</v>
       </c>
       <c r="T14">
-        <v>0.00402251385482715</v>
+        <v>0.001908739686503232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,40 +1355,40 @@
         <v>0.330349</v>
       </c>
       <c r="I15">
-        <v>0.4211454272404852</v>
+        <v>0.2392352848309814</v>
       </c>
       <c r="J15">
-        <v>0.3358464708818653</v>
+        <v>0.2090711920100198</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.03269333333333333</v>
+        <v>1.132021</v>
       </c>
       <c r="N15">
-        <v>0.09808</v>
+        <v>3.396063</v>
       </c>
       <c r="O15">
-        <v>0.002784012608897563</v>
+        <v>0.1814912839706329</v>
       </c>
       <c r="P15">
-        <v>0.00280068500277727</v>
+        <v>0.1823197568298983</v>
       </c>
       <c r="Q15">
-        <v>0.005400104986666666</v>
+        <v>0.1869810026645</v>
       </c>
       <c r="R15">
-        <v>0.03240062992</v>
+        <v>1.121886015987</v>
       </c>
       <c r="S15">
-        <v>0.001172474179617062</v>
+        <v>0.04341911901505488</v>
       </c>
       <c r="T15">
-        <v>0.0009406001742345131</v>
+        <v>0.03811780888740378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>0.330349</v>
       </c>
       <c r="I16">
-        <v>0.4211454272404852</v>
+        <v>0.2392352848309814</v>
       </c>
       <c r="J16">
-        <v>0.3358464708818653</v>
+        <v>0.2090711920100198</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.251722333333333</v>
+        <v>0.8622709999999999</v>
       </c>
       <c r="N16">
-        <v>21.755167</v>
+        <v>2.586813</v>
       </c>
       <c r="O16">
-        <v>0.6175230346316494</v>
+        <v>0.1382436111349891</v>
       </c>
       <c r="P16">
-        <v>0.6212211454915881</v>
+        <v>0.1388746666726794</v>
       </c>
       <c r="Q16">
-        <v>1.197799610547167</v>
+        <v>0.1424251812895</v>
       </c>
       <c r="R16">
-        <v>7.186797663283</v>
+        <v>0.8545510877369999</v>
       </c>
       <c r="S16">
-        <v>0.2600670022507869</v>
+        <v>0.03307274968594257</v>
       </c>
       <c r="T16">
-        <v>0.2086349293505396</v>
+        <v>0.02903469210125125</v>
       </c>
     </row>
   </sheetData>
